--- a/Cargue productos/Menu Web.xlsx
+++ b/Cargue productos/Menu Web.xlsx
@@ -5,6 +5,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1'!A1:F89</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -397,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -495,16 +498,16 @@
         <v>Panadería</v>
       </c>
       <c r="B6" t="str">
-        <v>CROISSANT CHOCOLATE 80 GMS</v>
+        <v>HOJALDRE DE BOCADILLO</v>
       </c>
       <c r="C6" t="str">
         <v>.</v>
       </c>
       <c r="D6">
-        <v>5500</v>
+        <v>4900</v>
       </c>
       <c r="F6" t="str">
-        <v>images/productos/1583 menu/Croissant Chocolate.jpg</v>
+        <v>images/productos/1583 menu/Pastel triple.JPG</v>
       </c>
     </row>
     <row r="7">
@@ -512,16 +515,16 @@
         <v>Panadería</v>
       </c>
       <c r="B7" t="str">
-        <v>PASTEL TRIPLE CHICHARRON 115 G</v>
+        <v>Mini croissant integral 30 gr</v>
       </c>
       <c r="C7" t="str">
         <v>.</v>
       </c>
       <c r="D7">
-        <v>4900</v>
+        <v>2000</v>
       </c>
       <c r="F7" t="str">
-        <v>images/productos/1583 menu/Pastel triple.JPG</v>
+        <v>images/productos/1583 menu/Mini croissant.png</v>
       </c>
     </row>
     <row r="8">
@@ -529,16 +532,16 @@
         <v>Panadería</v>
       </c>
       <c r="B8" t="str">
-        <v>PASTEL DE AREQUIPE 95 GMS</v>
+        <v>Palito de queso 60 gr</v>
       </c>
       <c r="C8" t="str">
         <v>.</v>
       </c>
       <c r="D8">
-        <v>4900</v>
+        <v>6000</v>
       </c>
       <c r="F8" t="str">
-        <v>images/productos/1583 menu/Pastel arequipe.jpg</v>
+        <v>images/productos/1583 menu/Palito de queso.JPG</v>
       </c>
     </row>
     <row r="9">
@@ -546,16 +549,16 @@
         <v>Panadería</v>
       </c>
       <c r="B9" t="str">
-        <v>Mini croissant integral 30 gr</v>
+        <v>Pastel de pollo 100 gr</v>
       </c>
       <c r="C9" t="str">
         <v>.</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="F9" t="str">
-        <v>images/productos/1583 menu/Mini croissant.png</v>
+        <v>images/productos/1583 menu/Pastel pollo.jpg</v>
       </c>
     </row>
     <row r="10">
@@ -563,67 +566,67 @@
         <v>Panadería</v>
       </c>
       <c r="B10" t="str">
-        <v>Palito de queso 60 gr</v>
+        <v>WAFLEBONOS   X  4 UNID.</v>
       </c>
       <c r="C10" t="str">
         <v>.</v>
       </c>
       <c r="D10">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="F10" t="str">
-        <v>images/productos/1583 menu/Palito de queso.JPG</v>
+        <v>images/productos/1583 menu/Wafflebono.jpg</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Panadería</v>
+        <v>Tortas</v>
       </c>
       <c r="B11" t="str">
-        <v>Pastel de pollo 100 gr</v>
+        <v>Torta de almojabana x porción</v>
       </c>
       <c r="C11" t="str">
         <v>.</v>
       </c>
       <c r="D11">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="F11" t="str">
-        <v>images/productos/1583 menu/Pastel pollo.jpg</v>
+        <v>images/productos/1583 menu/Torta almojabana.jpg</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Panadería</v>
+        <v>Tortas</v>
       </c>
       <c r="B12" t="str">
-        <v>WAFLEBONOS   X  4 UNID.</v>
+        <v>Torta de zanahoria x porción</v>
       </c>
       <c r="C12" t="str">
         <v>.</v>
       </c>
       <c r="D12">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="F12" t="str">
-        <v>images/productos/1583 menu/Wafflebono.jpg</v>
+        <v>images/productos/1583 menu/Torta Zanahoria.jpg</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Panadería</v>
+        <v>Tortas</v>
       </c>
       <c r="B13" t="str">
-        <v>WAFLEBONOS   X  16 UNID. 480 GR</v>
+        <v>Torta de chocolate x porción</v>
       </c>
       <c r="C13" t="str">
         <v>.</v>
       </c>
       <c r="D13">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="F13" t="str">
-        <v>images/productos/1583 menu/Wafflebono.jpg</v>
+        <v>images/productos/1583 menu/Torta de chocolate.jpg</v>
       </c>
     </row>
     <row r="14">
@@ -631,16 +634,16 @@
         <v>Tortas</v>
       </c>
       <c r="B14" t="str">
-        <v>TORTA DE ALMOJABANA  1 PORCION</v>
+        <v>Torta red velvet x porción</v>
       </c>
       <c r="C14" t="str">
         <v>.</v>
       </c>
       <c r="D14">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="F14" t="str">
-        <v>images/productos/1583 menu/Torta almojabana.jpg</v>
+        <v>images/productos/1583 menu/Torta Red Velvet.jpg</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +651,7 @@
         <v>Tortas</v>
       </c>
       <c r="B15" t="str">
-        <v>TORTA DE ZANAHORIA  1 PORCION</v>
+        <v>Torta de queso x porción</v>
       </c>
       <c r="C15" t="str">
         <v>.</v>
@@ -657,7 +660,7 @@
         <v>14500</v>
       </c>
       <c r="F15" t="str">
-        <v>images/productos/1583 menu/Torta Zanahoria.jpg</v>
+        <v>images/productos/1583 menu/Torta de queso.jpg</v>
       </c>
     </row>
     <row r="16">
@@ -665,149 +668,143 @@
         <v>Tortas</v>
       </c>
       <c r="B16" t="str">
-        <v>TORTA DE BANANO 1 PORCION</v>
+        <v>Torta de piña x porción</v>
       </c>
       <c r="C16" t="str">
         <v>.</v>
       </c>
       <c r="D16">
-        <v>14500</v>
-      </c>
-      <c r="F16" t="str">
-        <v>images/productos/1583 menu/Torta Banano.ARW</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Tortas</v>
+        <v>Snack</v>
       </c>
       <c r="B17" t="str">
-        <v>TORTA DE CHOCOLATE 1 PORCION</v>
+        <v>Horneado americano</v>
       </c>
       <c r="C17" t="str">
         <v>.</v>
       </c>
       <c r="D17">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="F17" t="str">
-        <v>images/productos/1583 menu/Torta de chocolate.jpg</v>
+        <v>images/productos/1583 menu/Pastel americano.ARW</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Tortas</v>
+        <v>Snack</v>
       </c>
       <c r="B18" t="str">
-        <v>TORTA RED VELVET 1 PORCION</v>
+        <v>Horneado de carne</v>
       </c>
       <c r="C18" t="str">
         <v>.</v>
       </c>
       <c r="D18">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="F18" t="str">
-        <v>images/productos/1583 menu/Torta Red Velvet.jpg</v>
+        <v>images/productos/1583 menu/Pastel C,I,H.ARW</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Tortas</v>
+        <v>Snack</v>
       </c>
       <c r="B19" t="str">
-        <v>TORTA DE QUESO 1 PORCION</v>
+        <v>Horneado italiano</v>
       </c>
       <c r="C19" t="str">
         <v>.</v>
       </c>
       <c r="D19">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="F19" t="str">
-        <v>images/productos/1583 menu/Torta de queso.jpg</v>
+        <v>images/productos/1583 menu/Pastel C,I,H.ARW</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Tortas</v>
+        <v>Snack</v>
       </c>
       <c r="B20" t="str">
-        <v>TORTA DE PIÑA 1 PORCION</v>
+        <v>Horneado Hawaiano</v>
       </c>
       <c r="C20" t="str">
         <v>.</v>
       </c>
       <c r="D20">
-        <v>14500</v>
+        <v>10000</v>
+      </c>
+      <c r="F20" t="str">
+        <v>images/productos/1583 menu/Pastel C,I,H.ARW</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Panadería</v>
+        <v>Bebidas Calientes</v>
       </c>
       <c r="B21" t="str">
-        <v>Pastel americano</v>
+        <v>Café espresso sencillo</v>
       </c>
       <c r="C21" t="str">
         <v>.</v>
       </c>
       <c r="D21">
-        <v>10000</v>
-      </c>
-      <c r="F21" t="str">
-        <v>images/productos/1583 menu/Pastel americano.ARW</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Panadería</v>
+        <v>Bebidas Calientes</v>
       </c>
       <c r="B22" t="str">
-        <v>Pastel de carne</v>
+        <v>Café espresso doble</v>
       </c>
       <c r="C22" t="str">
         <v>.</v>
       </c>
       <c r="D22">
-        <v>10000</v>
-      </c>
-      <c r="F22" t="str">
-        <v>images/productos/1583 menu/Pastel C,I,H.ARW</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Panadería</v>
+        <v>Bebidas Calientes</v>
       </c>
       <c r="B23" t="str">
-        <v>Pastel italiano</v>
+        <v>Café Americano</v>
       </c>
       <c r="C23" t="str">
         <v>.</v>
       </c>
       <c r="D23">
-        <v>10000</v>
+        <v>6200</v>
       </c>
       <c r="F23" t="str">
-        <v>images/productos/1583 menu/Pastel C,I,H.ARW</v>
+        <v>images/productos/1583 menu/americano.png</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Panadería</v>
+        <v>Bebidas Calientes</v>
       </c>
       <c r="B24" t="str">
-        <v>Pastel Hawaiano</v>
+        <v>Capuccino 7 Onzas (Para llevar)</v>
       </c>
       <c r="C24" t="str">
         <v>.</v>
       </c>
       <c r="D24">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="F24" t="str">
-        <v>images/productos/1583 menu/Pastel C,I,H.ARW</v>
+        <v>images/productos/1583 menu/Capuccino.png</v>
       </c>
     </row>
     <row r="25">
@@ -815,13 +812,16 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B25" t="str">
-        <v>CAFÉ 1583 ESPRESSO SENCILLO</v>
+        <v>Capuccino mediano 9 Onzas</v>
       </c>
       <c r="C25" t="str">
         <v>.</v>
       </c>
       <c r="D25">
-        <v>5800</v>
+        <v>9500</v>
+      </c>
+      <c r="F25" t="str">
+        <v>images/productos/1583 menu/Capuccino.png</v>
       </c>
     </row>
     <row r="26">
@@ -829,13 +829,16 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B26" t="str">
-        <v>CAFÉ 1583 ESPRESSO DOBLE</v>
+        <v>Capuccino grande 12 Onzas</v>
       </c>
       <c r="C26" t="str">
         <v>.</v>
       </c>
       <c r="D26">
-        <v>8100</v>
+        <v>10500</v>
+      </c>
+      <c r="F26" t="str">
+        <v>images/productos/1583 menu/Capuccino.png</v>
       </c>
     </row>
     <row r="27">
@@ -843,16 +846,16 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B27" t="str">
-        <v>Café 1583 Americano</v>
+        <v>Café Latte mediano</v>
       </c>
       <c r="C27" t="str">
         <v>.</v>
       </c>
       <c r="D27">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="F27" t="str">
-        <v>images/productos/1583 menu/americano.png</v>
+        <v>images/productos/1583 menu/latte.jpg</v>
       </c>
     </row>
     <row r="28">
@@ -860,16 +863,16 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B28" t="str">
-        <v>Capuccino 1583 7 Onzas</v>
+        <v>Café Latte grande</v>
       </c>
       <c r="C28" t="str">
         <v>.</v>
       </c>
       <c r="D28">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="F28" t="str">
-        <v>images/productos/1583 menu/Capuccino.png</v>
+        <v>images/productos/1583 menu/latte.jpg</v>
       </c>
     </row>
     <row r="29">
@@ -877,16 +880,16 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B29" t="str">
-        <v>Capuccino 1583 mediano 9 Onzas</v>
+        <v>Mocaccino mediano</v>
       </c>
       <c r="C29" t="str">
         <v>.</v>
       </c>
       <c r="D29">
-        <v>8500</v>
+        <v>10700</v>
       </c>
       <c r="F29" t="str">
-        <v>images/productos/1583 menu/Capuccino.png</v>
+        <v>images/productos/1583 menu/mocaccino.jpg</v>
       </c>
     </row>
     <row r="30">
@@ -894,16 +897,16 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B30" t="str">
-        <v>Capuccino 1583 grande 12 Onzas</v>
+        <v>Mocaccino grande</v>
       </c>
       <c r="C30" t="str">
         <v>.</v>
       </c>
       <c r="D30">
-        <v>10500</v>
+        <v>12700</v>
       </c>
       <c r="F30" t="str">
-        <v>images/productos/1583 menu/Capuccino.png</v>
+        <v>images/productos/1583 menu/mocaccino.jpg</v>
       </c>
     </row>
     <row r="31">
@@ -911,16 +914,16 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B31" t="str">
-        <v>Café Late 1583 mediano</v>
+        <v xml:space="preserve">Café Irlandés </v>
       </c>
       <c r="C31" t="str">
         <v>.</v>
       </c>
       <c r="D31">
-        <v>8500</v>
+        <v>23000</v>
       </c>
       <c r="F31" t="str">
-        <v>images/productos/1583 menu/latte.jpg</v>
+        <v>images/productos/1583 menu/irlandes.jpg</v>
       </c>
     </row>
     <row r="32">
@@ -928,16 +931,13 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B32" t="str">
-        <v>Café Late 1583 grande</v>
+        <v xml:space="preserve">Café campesino </v>
       </c>
       <c r="C32" t="str">
         <v>.</v>
       </c>
       <c r="D32">
-        <v>10500</v>
-      </c>
-      <c r="F32" t="str">
-        <v>images/productos/1583 menu/latte.jpg</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="33">
@@ -945,16 +945,13 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B33" t="str">
-        <v>Mocaccino 1583 mediano</v>
+        <v>Carajillo aguardiente</v>
       </c>
       <c r="C33" t="str">
         <v>.</v>
       </c>
       <c r="D33">
-        <v>10700</v>
-      </c>
-      <c r="F33" t="str">
-        <v>images/productos/1583 menu/mocaccino.jpg</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="34">
@@ -962,16 +959,13 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B34" t="str">
-        <v>Mocaccino 1583 grande</v>
+        <v>Carajillo brandy</v>
       </c>
       <c r="C34" t="str">
         <v>.</v>
       </c>
       <c r="D34">
-        <v>12700</v>
-      </c>
-      <c r="F34" t="str">
-        <v>images/productos/1583 menu/mocaccino.jpg</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="35">
@@ -979,16 +973,16 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B35" t="str">
-        <v xml:space="preserve">Café Irlandés 1583 </v>
+        <v xml:space="preserve">Café Macchiato </v>
       </c>
       <c r="C35" t="str">
         <v>.</v>
       </c>
       <c r="D35">
-        <v>14500</v>
+        <v>8900</v>
       </c>
       <c r="F35" t="str">
-        <v>images/productos/1583 menu/irlandes.jpg</v>
+        <v>images/productos/1583 menu/Capuccino.png</v>
       </c>
     </row>
     <row r="36">
@@ -996,13 +990,16 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B36" t="str">
-        <v>Café campesino 1583</v>
+        <v xml:space="preserve">Café Macchiato bombón </v>
       </c>
       <c r="C36" t="str">
         <v>.</v>
       </c>
       <c r="D36">
-        <v>8500</v>
+        <v>9000</v>
+      </c>
+      <c r="F36" t="str">
+        <v>images/productos/1583 menu/macciato bonbon.png</v>
       </c>
     </row>
     <row r="37">
@@ -1010,78 +1007,81 @@
         <v>Bebidas Calientes</v>
       </c>
       <c r="B37" t="str">
-        <v>Carajillo 1583 aguardiente</v>
+        <v>Infusión</v>
       </c>
       <c r="C37" t="str">
         <v>.</v>
       </c>
       <c r="D37">
-        <v>14000</v>
+        <v>6000</v>
+      </c>
+      <c r="F37" t="str">
+        <v>images/productos/1583 menu/Infusion.JPG</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Bebidas Calientes</v>
+        <v>Bebidas Frias</v>
       </c>
       <c r="B38" t="str">
-        <v>Carajillo 1583 brandy</v>
+        <v>Cold brew orange</v>
       </c>
       <c r="C38" t="str">
         <v>.</v>
       </c>
       <c r="D38">
-        <v>22000</v>
+        <v>18000</v>
+      </c>
+      <c r="F38" t="str">
+        <v>images/productos/1583 menu/orange.jpg</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Bebidas Calientes</v>
+        <v>Bebidas Frias</v>
       </c>
       <c r="B39" t="str">
-        <v xml:space="preserve">Café Macchiato 1583 </v>
+        <v>Cold brew soda</v>
       </c>
       <c r="C39" t="str">
         <v>.</v>
       </c>
       <c r="D39">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="F39" t="str">
-        <v>images/productos/1583 menu/Capuccino.png</v>
+        <v>images/productos/1583 menu/soda.jpg</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Bebidas Calientes</v>
+        <v>Bebidas Frias</v>
       </c>
       <c r="B40" t="str">
-        <v>Café Macchiato bombón 1583</v>
+        <v>Cold brew mojito</v>
       </c>
       <c r="C40" t="str">
         <v>.</v>
       </c>
       <c r="D40">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="F40" t="str">
-        <v>images/productos/1583 menu/macciato bonbon.png</v>
+        <v>images/productos/1583 menu/mojito.png</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Bebidas Calientes</v>
+        <v>Bebidas Frias</v>
       </c>
       <c r="B41" t="str">
-        <v>INFUSIÓN 1583</v>
+        <v>Cold brew latte</v>
       </c>
       <c r="C41" t="str">
         <v>.</v>
       </c>
       <c r="D41">
-        <v>6000</v>
-      </c>
-      <c r="F41" t="str">
-        <v>images/productos/1583 menu/Infusion.JPG</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="42">
@@ -1089,16 +1089,16 @@
         <v>Bebidas Frias</v>
       </c>
       <c r="B42" t="str">
-        <v>COLD BREW ORANGE</v>
+        <v>Affogato (Vainilla)</v>
       </c>
       <c r="C42" t="str">
         <v>.</v>
       </c>
       <c r="D42">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="F42" t="str">
-        <v>images/productos/1583 menu/orange.jpg</v>
+        <v>images/productos/1583 menu/afogatto.png</v>
       </c>
     </row>
     <row r="43">
@@ -1106,16 +1106,16 @@
         <v>Bebidas Frias</v>
       </c>
       <c r="B43" t="str">
-        <v>COLD BREW SODA</v>
+        <v>Malteada (Vainilla,fresa,oreo)</v>
       </c>
       <c r="C43" t="str">
         <v>.</v>
       </c>
       <c r="D43">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="F43" t="str">
-        <v>images/productos/1583 menu/soda.jpg</v>
+        <v>images/productos/1583 menu/malteada.png</v>
       </c>
     </row>
     <row r="44">
@@ -1123,24 +1123,21 @@
         <v>Bebidas Frias</v>
       </c>
       <c r="B44" t="str">
-        <v>COLD BREW MOJITO</v>
+        <v>Granizado de café</v>
       </c>
       <c r="C44" t="str">
         <v>.</v>
       </c>
       <c r="D44">
-        <v>24000</v>
-      </c>
-      <c r="F44" t="str">
-        <v>images/productos/1583 menu/mojito.png</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Bebidas Frias</v>
+        <v>Sodas Italianas</v>
       </c>
       <c r="B45" t="str">
-        <v>COLD BREW LATTE</v>
+        <v>Soda Italiana de frutos rojos ( Fresa,Mora,Aránd.)</v>
       </c>
       <c r="C45" t="str">
         <v>.</v>
@@ -1148,104 +1145,110 @@
       <c r="D45">
         <v>15000</v>
       </c>
+      <c r="F45" t="str">
+        <v>images/productos/1583 menu/frutos rojos.jpg</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Bebidas Frias</v>
+        <v>Sodas Italianas</v>
       </c>
       <c r="B46" t="str">
-        <v>AFOGATTO (VAINILLA)- SHOT DE BAILEYS</v>
+        <v>Soda italiana de frutos amarillos ( Maracuya,Piña)</v>
       </c>
       <c r="C46" t="str">
         <v>.</v>
       </c>
       <c r="D46">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="F46" t="str">
-        <v>images/productos/1583 menu/afogatto.png</v>
+        <v>images/productos/1583 menu/soda maracuya.jpg</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Bebidas Frias</v>
+        <v>Vinos</v>
       </c>
       <c r="B47" t="str">
-        <v>MALTEADA ( VAINILLA,FRESA,OREO)</v>
+        <v>TINTO DE VERANO - JARRA</v>
       </c>
       <c r="C47" t="str">
         <v>.</v>
       </c>
       <c r="D47">
-        <v>16000</v>
+        <v>75000</v>
       </c>
       <c r="F47" t="str">
-        <v>images/productos/1583 menu/malteada.png</v>
+        <v>images/productos/1583 menu/Jarra Sangria.JPG</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Bebidas Frias</v>
+        <v>Vinos</v>
       </c>
       <c r="B48" t="str">
-        <v>GRANIZADO DE CAFÉ</v>
+        <v>TINTO DE VERANO - MEDIA JARRA</v>
       </c>
       <c r="C48" t="str">
         <v>.</v>
       </c>
       <c r="D48">
-        <v>14000</v>
+        <v>48000</v>
+      </c>
+      <c r="F48" t="str">
+        <v>images/productos/1583 menu/Jarra Sangria.JPG</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Sodas Italianas</v>
+        <v>Vinos</v>
       </c>
       <c r="B49" t="str">
-        <v>SODA ITALIANA DE FRUTOS ROJOS</v>
+        <v>SANGRIA - JARRA</v>
       </c>
       <c r="C49" t="str">
         <v>.</v>
       </c>
       <c r="D49">
-        <v>15000</v>
+        <v>95000</v>
       </c>
       <c r="F49" t="str">
-        <v>images/productos/1583 menu/frutos rojos.jpg</v>
+        <v>images/productos/1583 menu/Media Jarra.JPG</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Sodas Italianas</v>
+        <v>Vinos</v>
       </c>
       <c r="B50" t="str">
-        <v>SODA ITALIANA DE MARACUYA</v>
+        <v>SANGRIA MEDIA  JARRA</v>
       </c>
       <c r="C50" t="str">
         <v>.</v>
       </c>
       <c r="D50">
-        <v>15000</v>
+        <v>65000</v>
       </c>
       <c r="F50" t="str">
-        <v>images/productos/1583 menu/soda maracuya.jpg</v>
+        <v>images/productos/1583 menu/Media Jarra.JPG</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Sodas Italianas</v>
+        <v>Vinos</v>
       </c>
       <c r="B51" t="str">
-        <v>SODA ITALIANA DE LYCHEE</v>
+        <v>COPA - VINO TINTO</v>
       </c>
       <c r="C51" t="str">
         <v>.</v>
       </c>
       <c r="D51">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="F51" t="str">
-        <v>images/productos/1583 menu/LYCHEE.jpg</v>
+        <v>images/productos/1583 menu/Vino tinto.JPG</v>
       </c>
     </row>
     <row r="52">
@@ -1253,200 +1256,520 @@
         <v>Vinos</v>
       </c>
       <c r="B52" t="str">
-        <v>TINTO DE VERANO - JARRA</v>
+        <v>COPA - VINO BLANCO</v>
       </c>
       <c r="C52" t="str">
         <v>.</v>
       </c>
       <c r="D52">
-        <v>75000</v>
-      </c>
-      <c r="F52" t="str">
-        <v>images/productos/1583 menu/Jarra Sangria.JPG</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Vinos</v>
+        <v>Tabla de Quesos</v>
       </c>
       <c r="B53" t="str">
-        <v>TINTO DE VERANO - MEDIA JARRA</v>
+        <v>Tabla de quesos pequeña</v>
       </c>
       <c r="C53" t="str">
         <v>.</v>
       </c>
       <c r="D53">
-        <v>32500</v>
+        <v>45000</v>
       </c>
       <c r="F53" t="str">
-        <v>images/productos/1583 menu/Jarra Sangria.JPG</v>
+        <v>images/productos/1583 menu/Tabla de quesos.JPG</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Vinos</v>
+        <v>Tabla de Quesos</v>
       </c>
       <c r="B54" t="str">
-        <v xml:space="preserve"> TINTO DE VERANO - COPA</v>
+        <v>Tabla de quesos grande</v>
       </c>
       <c r="C54" t="str">
         <v>.</v>
       </c>
       <c r="D54">
-        <v>18000</v>
+        <v>65000</v>
       </c>
       <c r="F54" t="str">
-        <v>images/productos/1583 menu/Jarra Sangria.JPG</v>
+        <v>images/productos/1583 menu/Tabla de queso 2.JPG</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Vinos</v>
+        <v>By 1583</v>
       </c>
       <c r="B55" t="str">
-        <v>SANGRIA - JARRA</v>
+        <v>MUG</v>
       </c>
       <c r="C55" t="str">
         <v>.</v>
       </c>
       <c r="D55">
-        <v>95000</v>
-      </c>
-      <c r="F55" t="str">
-        <v>images/productos/1583 menu/Media Jarra.JPG</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Vinos</v>
+        <v>Snack</v>
       </c>
       <c r="B56" t="str">
-        <v>SANGRIA MEDIA  JARRA</v>
+        <v>Sandwich Gran Italiano Ciabatta</v>
       </c>
       <c r="C56" t="str">
         <v>.</v>
       </c>
       <c r="D56">
-        <v>47500</v>
-      </c>
-      <c r="F56" t="str">
-        <v>images/productos/1583 menu/Media Jarra.JPG</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Vinos</v>
+        <v>Snack</v>
       </c>
       <c r="B57" t="str">
-        <v>COPA - VINO TINTO</v>
+        <v>Sandwich Gran Italiano Artellano</v>
       </c>
       <c r="C57" t="str">
         <v>.</v>
       </c>
       <c r="D57">
-        <v>22000</v>
-      </c>
-      <c r="F57" t="str">
-        <v>images/productos/1583 menu/Vino tinto.JPG</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Vinos</v>
+        <v>Bebidas Calientes</v>
       </c>
       <c r="B58" t="str">
-        <v>COPA - VINO BLANCO</v>
+        <v>Te chai 12oz caliente</v>
       </c>
       <c r="C58" t="str">
         <v>.</v>
       </c>
       <c r="D58">
-        <v>22000</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Tabla de Quesos</v>
+        <v>Bebidas Calientes</v>
       </c>
       <c r="B59" t="str">
-        <v>TABLA DE QUESOS 1583 -INDIVIDUAL</v>
+        <v>Te chai 9oz caliente</v>
       </c>
       <c r="C59" t="str">
         <v>.</v>
       </c>
       <c r="D59">
-        <v>40000</v>
-      </c>
-      <c r="F59" t="str">
-        <v>images/productos/1583 menu/Tabla de quesos.JPG</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Tabla de Quesos</v>
+        <v>Bebidas Calientes</v>
       </c>
       <c r="B60" t="str">
-        <v>TABLA DE QUESOS 1583 -COMPARTIR (2 personas)</v>
+        <v>Cafe filtrado personal</v>
       </c>
       <c r="C60" t="str">
         <v>.</v>
       </c>
       <c r="D60">
-        <v>55000</v>
-      </c>
-      <c r="F60" t="str">
-        <v>images/productos/1583 menu/Tabla de queso 2.JPG</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Galletas</v>
+        <v>Bebidas Calientes</v>
       </c>
       <c r="B61" t="str">
-        <v>GALLETAS CHIPS DE CHOCOLATE 80 gr</v>
+        <v>Cafe filtrado para compartir</v>
       </c>
       <c r="C61" t="str">
         <v>.</v>
       </c>
       <c r="D61">
-        <v>10000</v>
-      </c>
-      <c r="F61" t="str">
-        <v>images/productos/1583 menu/Galletas.jpg</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mousse</v>
+        <v>Bebidas Calientes</v>
       </c>
       <c r="B62" t="str">
-        <v>MOUSSE (MARACUYA,LIMON,MORA)</v>
+        <v>Chocolate 8oz</v>
       </c>
       <c r="C62" t="str">
         <v>.</v>
       </c>
       <c r="D62">
-        <v>10000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Agua 500ml</v>
+      </c>
+      <c r="C63" t="str">
+        <v>.</v>
+      </c>
+      <c r="D63">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Agua con gas 500ml</v>
+      </c>
+      <c r="C64" t="str">
+        <v>.</v>
+      </c>
+      <c r="D64">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Café late frío grande</v>
+      </c>
+      <c r="C65" t="str">
+        <v>.</v>
+      </c>
+      <c r="D65">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Café late frío mediano</v>
+      </c>
+      <c r="C66" t="str">
+        <v>.</v>
+      </c>
+      <c r="D66">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Cocacola Original</v>
+      </c>
+      <c r="C67" t="str">
+        <v>.</v>
+      </c>
+      <c r="D67">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B68" t="str">
+        <v xml:space="preserve">Cocacola zero 400ml </v>
+      </c>
+      <c r="C68" t="str">
+        <v>.</v>
+      </c>
+      <c r="D68">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Hatsu</v>
+      </c>
+      <c r="C69" t="str">
+        <v>.</v>
+      </c>
+      <c r="D69">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Te chai 12oz frio</v>
+      </c>
+      <c r="C70" t="str">
+        <v>.</v>
+      </c>
+      <c r="D70">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Te chai 9oz frio</v>
+      </c>
+      <c r="C71" t="str">
+        <v>.</v>
+      </c>
+      <c r="D71">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B72" t="str">
+        <v>AFOGATTO (VAINILLA) CON SHOT DE BAILEYS</v>
+      </c>
+      <c r="C72" t="str">
+        <v>.</v>
+      </c>
+      <c r="D72">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Bebidas Frias</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Vaso de leche</v>
+      </c>
+      <c r="C73" t="str">
+        <v>.</v>
+      </c>
+      <c r="D73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Tortas</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Torta de almojabana con bocadillo x porción</v>
+      </c>
+      <c r="C74" t="str">
+        <v>.</v>
+      </c>
+      <c r="D74">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Tortas</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Cheesecake Arandanos x porción</v>
+      </c>
+      <c r="C75" t="str">
+        <v>.</v>
+      </c>
+      <c r="D75">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Combos</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Combo 1583 capuccino wafflebono x4</v>
+      </c>
+      <c r="C76" t="str">
+        <v>.</v>
+      </c>
+      <c r="D76">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Combos</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Combo capuccino x croassant de almendras</v>
+      </c>
+      <c r="C77" t="str">
+        <v>.</v>
+      </c>
+      <c r="D77">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Combos</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Combo Hojaldre Arequipe y Latte</v>
+      </c>
+      <c r="C78" t="str">
+        <v>.</v>
+      </c>
+      <c r="D78">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Combos</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Tabla de queso grande y 2 vinos</v>
+      </c>
+      <c r="C79" t="str">
+        <v>.</v>
+      </c>
+      <c r="D79">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Combos</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Tabla de queso pequeña y 2 vinos</v>
+      </c>
+      <c r="C80" t="str">
+        <v>.</v>
+      </c>
+      <c r="D80">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
         <v>By 1583</v>
       </c>
-      <c r="B63" t="str">
-        <v>MUG</v>
-      </c>
-      <c r="C63" t="str">
-        <v>.</v>
-      </c>
-      <c r="D63">
-        <v>20000</v>
+      <c r="B81" t="str">
+        <v>Bolsa de café 340gr</v>
+      </c>
+      <c r="C81" t="str">
+        <v>.</v>
+      </c>
+      <c r="D81">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Adiciones</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Adición Amaretto 1 onza</v>
+      </c>
+      <c r="D82">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Adiciones</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Adición baileys 1 onza</v>
+      </c>
+      <c r="D83">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Adiciones</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Caramelo</v>
+      </c>
+      <c r="D84">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Adiciones</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Adición vainilla</v>
+      </c>
+      <c r="D85">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Adiciones</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Salsa adición Waflebono (Frutos rojos)</v>
+      </c>
+      <c r="D86">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Adiciones</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Adición licor de café 1 onza</v>
+      </c>
+      <c r="D87">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Adiciones</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Adición Whisky 1 onza</v>
+      </c>
+      <c r="D88">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Adiciones</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Adición Brandy 1 onza</v>
+      </c>
+      <c r="D89">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F89"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F91"/>
   </ignoredErrors>
 </worksheet>
 </file>